--- a/data/ascentmonthly.xlsx
+++ b/data/ascentmonthly.xlsx
@@ -1,19 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE559AED-75FD-4ECA-92B4-8921A6EAF42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412F82CB-FE34-4A5F-B92F-57934CCE7E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -98,7 +109,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -379,10 +390,10 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -613,6 +624,9 @@
       <c r="F10">
         <v>7430</v>
       </c>
+      <c r="G10">
+        <v>10926</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -633,6 +647,9 @@
       <c r="F11">
         <v>2454</v>
       </c>
+      <c r="G11">
+        <v>6860</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -653,6 +670,9 @@
       <c r="F12">
         <v>3067</v>
       </c>
+      <c r="G12">
+        <v>6466</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -672,6 +692,9 @@
       </c>
       <c r="F13">
         <v>8838</v>
+      </c>
+      <c r="G13">
+        <v>8655</v>
       </c>
     </row>
   </sheetData>

--- a/data/ascentmonthly.xlsx
+++ b/data/ascentmonthly.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412F82CB-FE34-4A5F-B92F-57934CCE7E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C158FD-C462-4CD0-BDEF-5705B3E8D6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -387,18 +387,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -420,8 +420,11 @@
       <c r="G1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -443,8 +446,11 @@
       <c r="G2">
         <v>12174</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>10145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -466,8 +472,11 @@
       <c r="G3">
         <v>7107</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>6927</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -489,8 +498,11 @@
       <c r="G4">
         <v>8414</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>7298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -512,8 +524,11 @@
       <c r="G5">
         <v>5564</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>10988</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -535,8 +550,11 @@
       <c r="G6">
         <v>12796</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>11989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -558,8 +576,11 @@
       <c r="G7">
         <v>9372</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>12718</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -581,8 +602,11 @@
       <c r="G8">
         <v>13897</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>12895</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -604,8 +628,11 @@
       <c r="G9">
         <v>15911</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>9934</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -627,8 +654,11 @@
       <c r="G10">
         <v>10926</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>6920</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -650,8 +680,11 @@
       <c r="G11">
         <v>6860</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>9143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -673,8 +706,11 @@
       <c r="G12">
         <v>6466</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>10742</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>

--- a/data/ascentmonthly.xlsx
+++ b/data/ascentmonthly.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C158FD-C462-4CD0-BDEF-5705B3E8D6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03ADDA5-7B70-4AF6-B0E8-9C9DFA9FADDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,7 +390,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -732,6 +732,9 @@
       <c r="G13">
         <v>8655</v>
       </c>
+      <c r="H13">
+        <v>5341</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
